--- a/Resultados/Resumo_Geral_TSP_64ha.xlsx
+++ b/Resultados/Resumo_Geral_TSP_64ha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{C9E8D525-B1DE-4C9D-8E7E-90EFABB8581B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB991305-0854-4150-9DE0-2D08695D937D}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{C9E8D525-B1DE-4C9D-8E7E-90EFABB8581B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE53CF35-B053-4B1C-817F-7E641759FB75}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0C646151-5CC9-46A7-A91F-50D69611F81B}"/>
   </bookViews>
@@ -259,7 +259,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Gráfico de Séries</a:t>
+              <a:t>TSP 64 ha</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -275,9 +275,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -289,10 +286,28 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>field_64ha_100ha_2%_0m_0_TSP\</c:v>
+            <c:v>64ha_2%_0m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -437,10 +452,28 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>field_64ha_100ha_2%_6m_0_TSP\</c:v>
+            <c:v>64ha_2%_6m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -585,10 +618,28 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>ield_64ha_100ha_2%_12m_0_TSP\</c:v>
+            <c:v>64ha_2%_12m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -733,10 +784,28 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>field_64ha_100ha_6%_0m_0_TSP\</c:v>
+            <c:v>64ha_6%_0m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -881,10 +950,28 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>field_64ha_100ha_6%_6m_0_TSP\</c:v>
+            <c:v>64ha_6%_6m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1029,10 +1116,28 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>ield_64ha_100ha_6%_12m_0_TSP\</c:v>
+            <c:v>64ha_6%_12m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="star"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1179,9 +1284,6 @@
           <c:tx>
             <c:v>ield_64ha_100ha_10%_0m_0_TSP\</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Planilha8!$C$1:$C$2</c:f>
@@ -1211,10 +1313,28 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
-            <c:v>ield_64ha_100ha_10%_6m_0_TSP\</c:v>
+            <c:v>64ha_10%_6m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1359,10 +1479,28 @@
           <c:idx val="9"/>
           <c:order val="9"/>
           <c:tx>
-            <c:v>eld_64ha_100ha_10%_12m_0_TSP\</c:v>
+            <c:v>64ha_10%_12m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1509,9 +1647,6 @@
           <c:tx>
             <c:v>ield_64ha_100ha_14%_0m_0_TSP\</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Planilha11!$C$1:$C$2</c:f>
@@ -1541,10 +1676,26 @@
           <c:idx val="11"/>
           <c:order val="11"/>
           <c:tx>
-            <c:v>ield_64ha_100ha_14%_6m_0_TSP\</c:v>
+            <c:v>64ha_14%_6m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1689,10 +1840,26 @@
           <c:idx val="12"/>
           <c:order val="12"/>
           <c:tx>
-            <c:v>eld_64ha_100ha_14%_12m_0_TSP\</c:v>
+            <c:v>64ha_14%_12m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1839,9 +2006,6 @@
           <c:tx>
             <c:v>ield_64ha_100ha_18%_0m_0_TSP\</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Planilha14!$C$1:$C$2</c:f>
@@ -1871,10 +2035,30 @@
           <c:idx val="14"/>
           <c:order val="14"/>
           <c:tx>
-            <c:v>ield_64ha_100ha_18%_6m_0_TSP\</c:v>
+            <c:v>64ha_18%_6m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0">
+                  <a:alpha val="99000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2019,10 +2203,28 @@
           <c:idx val="15"/>
           <c:order val="15"/>
           <c:tx>
-            <c:v>eld_64ha_100ha_18%_12m_0_TSP\</c:v>
+            <c:v>64ha_18%_12m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2171,6 +2373,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="712024368"/>
         <c:axId val="712036368"/>
@@ -2182,6 +2385,24 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Volume de calda [L]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2200,6 +2421,24 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Capacidade operacional máxima [ha/h]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2214,6 +2453,28 @@
         <c:idx val="0"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="10"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="13"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80562785573901829"/>
+          <c:y val="0.11868134117550731"/>
+          <c:w val="0.18483319354556038"/>
+          <c:h val="0.79721248015575175"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2227,6 +2488,16 @@
     </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2245,10 +2516,10 @@
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2596,7 +2867,9 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
